--- a/municipal/ENG/Trading/Average annual number of employed persons/Imereti/Kharagauli Municipality.xlsx
+++ b/municipal/ENG/Trading/Average annual number of employed persons/Imereti/Kharagauli Municipality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etsertsvadze\Desktop\ბაზრები - Copy\Average annual number of employed persons\Imereti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Average annual number of employed persons\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5713E4AA-A85A-4966-887F-D1BF53708DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kharagauli Municipality" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>…</t>
   </si>
@@ -38,20 +39,39 @@
     <t>Average annual number of employed persons in Kharagauli Municipality</t>
   </si>
   <si>
-    <t>... - Data is missing or confidential</t>
+    <t>(Declared Data, Persons)</t>
   </si>
   <si>
-    <t>(Declared Data, Persons)</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> „ ... „ - Data is confidential or unavailable.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,26 +80,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -88,8 +102,23 @@
     <font>
       <sz val="9"/>
       <color indexed="8"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -106,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,56 +154,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,16 +466,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="2" customWidth="1"/>
-    <col min="2" max="10" width="13.28515625" style="2" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.140625" style="2" customWidth="1"/>
+    <col min="2" max="15" width="8.7109375" style="2" customWidth="1"/>
+    <col min="16" max="256" width="9.140625" style="2"/>
     <col min="257" max="257" width="28" style="2" customWidth="1"/>
     <col min="258" max="266" width="13.28515625" style="2" customWidth="1"/>
     <col min="267" max="512" width="9.140625" style="2"/>
@@ -656,199 +667,112 @@
     <col min="16139" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5">
-        <v>2013</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2014</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2015</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2016</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2017</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2018</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2019</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2020</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2021</v>
-      </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -856,5 +780,6 @@
     <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>